--- a/xlsx/工程制图_intext.xlsx
+++ b/xlsx/工程制图_intext.xlsx
@@ -29,13 +29,13 @@
     <t>技术制图</t>
   </si>
   <si>
-    <t>政策_政策_藍圖_工程制图</t>
+    <t>政策_政策_蓝图_工程制图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%9C%96</t>
   </si>
   <si>
-    <t>工程圖</t>
+    <t>工程图</t>
   </si>
 </sst>
 </file>
